--- a/semiconductor_schedule/data.xlsx
+++ b/semiconductor_schedule/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\半導體排程資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題\Undergraduate-Research\semiconductor_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5E6B24-9E93-4922-9804-E2776A7FC617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82C0BAD-294C-478C-A3F1-8888FB77C96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIP" sheetId="5" r:id="rId1"/>
@@ -1970,10 +1970,10 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.296875" customWidth="1"/>
-    <col min="10" max="10" width="53.796875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="53.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5522,10 +5522,10 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6641,6 +6641,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6650,7 +6651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -37469,7 +37470,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
